--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anu3\sem2\VVSS\VVSS_PizzaShop\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anu3\sem2\VVSS\VVSS_PizzaShop\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Arhitectura" sheetId="2" r:id="rId2"/>
     <sheet name="Cod Sursa" sheetId="3" r:id="rId3"/>
+    <sheet name="Tool-basedCodeAnalysis" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
   <si>
     <t>Nr.</t>
   </si>
@@ -274,14 +275,122 @@
     <t>PaymentAlert provoaca confuzie &amp; MenuDataModel nu duce cu gandul la entitate (alternativa: Order)</t>
   </si>
   <si>
-    <t>NA?</t>
+    <t>Nu sunt branch-uri eronate</t>
+  </si>
+  <si>
+    <t>Se verifica daca se pot accesa fisierele</t>
+  </si>
+  <si>
+    <t>Token-urile separate de "," nu sunt validate (nr lor, tip de data)</t>
+  </si>
+  <si>
+    <t>Se face printStackTrace fara (re)throw</t>
+  </si>
+  <si>
+    <t>observableList, Object ca tip generic in loc de entitate</t>
+  </si>
+  <si>
+    <t>Nu apar erori in iteratori/loops</t>
+  </si>
+  <si>
+    <t>MenuDataModel este entitate dar duce cu gandul la ModelView</t>
+  </si>
+  <si>
+    <t>Nu exista nereguli in declararea variabilelor</t>
+  </si>
+  <si>
+    <t>Clasa</t>
+  </si>
+  <si>
+    <t>Linia</t>
+  </si>
+  <si>
+    <t>Problema identificata</t>
+  </si>
+  <si>
+    <t>Rezolvat (Y/N)</t>
+  </si>
+  <si>
+    <t>Observatii</t>
+  </si>
+  <si>
+    <t>Nr. Crt</t>
+  </si>
+  <si>
+    <t>Rename this constant name to match the regular expression '^[A-Z][A-Z0-9]*(_[A-Z0-9]+)*$'.</t>
+  </si>
+  <si>
+    <t>PaymentType.java</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Lipsesc validari (ex. Nullcheck la selectia unei linii in tabel/lista, la rezultatul din Optional&lt;?&gt;)</t>
+  </si>
+  <si>
+    <t>Functia KitchenGUI se confunda cu constructorul</t>
+  </si>
+  <si>
+    <t>while(true) in threadul care primeste comenzi in KitchenController</t>
+  </si>
+  <si>
+    <t>KitchenGUIController.java</t>
+  </si>
+  <si>
+    <t>Add an end condition to this loop.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Consideram ca nu afecteaza fluxul aplicatiei, trebuie inlocuit cu un mecanism mai eficient e.g. observer/ wait-notify/ buton de refresh</t>
+  </si>
+  <si>
+    <t>Remove this "String" constructor</t>
+  </si>
+  <si>
+    <t>Add a nested comment explaining why this method is empty, throw an UnsupportedOperationException or complete the implementation.</t>
+  </si>
+  <si>
+    <t>MainGUIController.java</t>
+  </si>
+  <si>
+    <t>Oricum era empty si default, se poate elimina</t>
+  </si>
+  <si>
+    <t>Provide the parametrized type for this generic.</t>
+  </si>
+  <si>
+    <t>OrdersGUIController.java</t>
+  </si>
+  <si>
+    <t>Replace this usage of 'Stream.collect(Collectors.toList())' with 'Stream.toList()'</t>
+  </si>
+  <si>
+    <t>25, 27, 29, 31</t>
+  </si>
+  <si>
+    <t>Make this anonymous inner class a lambda</t>
+  </si>
+  <si>
+    <t>PaymentRepository.java</t>
+  </si>
+  <si>
+    <t>Change this "try" to a try-with-resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catch' branch identical to 'FileNotFoundException' branch </t>
+  </si>
+  <si>
+    <t>MenuRepository.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +405,31 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -340,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -352,6 +486,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -775,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,15 +1109,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -983,25 +1135,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1009,45 +1169,61 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1056,7 +1232,9 @@
       <c r="B8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1067,19 +1245,25 @@
         <v>67</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1088,18 +1272,26 @@
       <c r="B11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1108,10 +1300,216 @@
       <c r="B13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>56</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>84</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8">
+        <v>123</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -927,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,13 +1255,13 @@
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1283,13 +1283,13 @@
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1309,6 +1309,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
